--- a/biology/Médecine/Joseph_Paneth/Joseph_Paneth.xlsx
+++ b/biology/Médecine/Joseph_Paneth/Joseph_Paneth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph  Eduardo  Paneth, né le 6 octobre 1857 et mort le 4 janvier 1890 à Vienne, est un médecin et physiologiste autrichien connu pour la description de cellules immunitaires disséminées dans l'intestin grêle. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine dans les universités de Heidelberg et de Vienne, où il collabore avec le physiologiste Ernst Wilhelm von Brücke (1819-1892).
 Après un court séjour à Breslau, il retourne à Vienne pour occuper un poste d'assistant en 1886. Entre 1883 et 1884, il travaille à la station zoologique de Villefranche, à proximité de Nice.
@@ -547,7 +561,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>cellule de Paneth: cellules immunitaires, de forme pyramidale, situées au fond des glandes de Lieberkühn, disséminées au sein de l'épithélium intestinal des mammifères , ayant pour rôle de sécréter divers facteurs de protection dans la lumière des cryptes, tels que le lysozyme et les défensines.</t>
         </is>
